--- a/База данных в Музее.xlsx
+++ b/База данных в Музее.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +18,473 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="153">
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тип </t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Сотрудники музея</t>
+  </si>
+  <si>
+    <t>наименование</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Text(100)</t>
+  </si>
+  <si>
+    <t>Дата приема</t>
+  </si>
+  <si>
+    <t>Дата увольнения</t>
+  </si>
+  <si>
+    <t>ID Должность</t>
+  </si>
+  <si>
+    <t>ID Образование</t>
+  </si>
+  <si>
+    <t>ID Сотрудник</t>
+  </si>
+  <si>
+    <t>Штатное расписание</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Int (10)</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Real(10)</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Тип образования</t>
+  </si>
+  <si>
+    <t>№3</t>
+  </si>
+  <si>
+    <t>№2</t>
+  </si>
+  <si>
+    <t>№1</t>
+  </si>
+  <si>
+    <t>Тел. Справочник сотрудников.</t>
+  </si>
+  <si>
+    <t>№4</t>
+  </si>
+  <si>
+    <t>ID Образование сотрудника</t>
+  </si>
+  <si>
+    <t>ID телефон сотрудника</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>Int (20)</t>
+  </si>
+  <si>
+    <t>№5</t>
+  </si>
+  <si>
+    <t>График работы</t>
+  </si>
+  <si>
+    <t>ID Сотрудник_график работы</t>
+  </si>
+  <si>
+    <t>ID тип графика работы</t>
+  </si>
+  <si>
+    <t>№6</t>
+  </si>
+  <si>
+    <t>Типы графиков работы</t>
+  </si>
+  <si>
+    <t>График отпусков сотрудников</t>
+  </si>
+  <si>
+    <t>тип график работы</t>
+  </si>
+  <si>
+    <t>Период отпуска</t>
+  </si>
+  <si>
+    <t>№7</t>
+  </si>
+  <si>
+    <t>Структура подчинения</t>
+  </si>
+  <si>
+    <t>№8</t>
+  </si>
+  <si>
+    <t>ID Подчиненный</t>
+  </si>
+  <si>
+    <t>ID Руководитель</t>
+  </si>
+  <si>
+    <t>№9</t>
+  </si>
+  <si>
+    <t>Билеты</t>
+  </si>
+  <si>
+    <t>ID Билет</t>
+  </si>
+  <si>
+    <t>ID тип билета</t>
+  </si>
+  <si>
+    <t>№10</t>
+  </si>
+  <si>
+    <t>Типы билетов</t>
+  </si>
+  <si>
+    <t>Тип билета</t>
+  </si>
+  <si>
+    <t>Цена билета</t>
+  </si>
+  <si>
+    <t>№11</t>
+  </si>
+  <si>
+    <t>Посещение музея</t>
+  </si>
+  <si>
+    <t>ID посещения</t>
+  </si>
+  <si>
+    <t>ID посетитель</t>
+  </si>
+  <si>
+    <t>Кол-во человек</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>ID  Выставка</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>ID  Квест</t>
+  </si>
+  <si>
+    <t>ID  Экспозиция</t>
+  </si>
+  <si>
+    <t>№12</t>
+  </si>
+  <si>
+    <t>Выставки</t>
+  </si>
+  <si>
+    <t>Дата старта</t>
+  </si>
+  <si>
+    <t>Дата окончания</t>
+  </si>
+  <si>
+    <t>Экспозиции</t>
+  </si>
+  <si>
+    <t>№13</t>
+  </si>
+  <si>
+    <t>№14</t>
+  </si>
+  <si>
+    <t>Квесты</t>
+  </si>
+  <si>
+    <t>№15</t>
+  </si>
+  <si>
+    <t>Тип поситителя</t>
+  </si>
+  <si>
+    <t>ID Зала</t>
+  </si>
+  <si>
+    <t>№16</t>
+  </si>
+  <si>
+    <t>Помещения музея</t>
+  </si>
+  <si>
+    <t>Номер зала</t>
+  </si>
+  <si>
+    <t>№17</t>
+  </si>
+  <si>
+    <t>График экскурсий</t>
+  </si>
+  <si>
+    <t>ID Тип экскурсии</t>
+  </si>
+  <si>
+    <t>Тип Экскурсии</t>
+  </si>
+  <si>
+    <t>№18</t>
+  </si>
+  <si>
+    <t>Этаж</t>
+  </si>
+  <si>
+    <t>№19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Ответственный сотрудник </t>
+  </si>
+  <si>
+    <t>ID Автор</t>
+  </si>
+  <si>
+    <t>ID Тематика</t>
+  </si>
+  <si>
+    <t>ID Страна</t>
+  </si>
+  <si>
+    <t>ID ЭРА</t>
+  </si>
+  <si>
+    <t>ID Вид экспоната</t>
+  </si>
+  <si>
+    <t>№20</t>
+  </si>
+  <si>
+    <t>Авторы</t>
+  </si>
+  <si>
+    <t>ID Автор экспоната</t>
+  </si>
+  <si>
+    <t>Национальность</t>
+  </si>
+  <si>
+    <t>№21</t>
+  </si>
+  <si>
+    <t>Тематика</t>
+  </si>
+  <si>
+    <t>ID Тематика экспоната</t>
+  </si>
+  <si>
+    <t>№22</t>
+  </si>
+  <si>
+    <t>Эра</t>
+  </si>
+  <si>
+    <t>№23</t>
+  </si>
+  <si>
+    <t>№24</t>
+  </si>
+  <si>
+    <t>Вид экспоната</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Вид </t>
+  </si>
+  <si>
+    <t>Место хранения</t>
+  </si>
+  <si>
+    <t>№25</t>
+  </si>
+  <si>
+    <t>ID Штатный сотрудник_должность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID телефон </t>
+  </si>
+  <si>
+    <t>ID  Сотрудник структура подчинения</t>
+  </si>
+  <si>
+    <t>ID Экспозиции музея</t>
+  </si>
+  <si>
+    <t>ID Тип экскурсии музея</t>
+  </si>
+  <si>
+    <t>Выставочные экспонаты</t>
+  </si>
+  <si>
+    <t>Хоз. инвентарь</t>
+  </si>
+  <si>
+    <t>ID Выставочные экспонаты</t>
+  </si>
+  <si>
+    <t>ID Хоз. инвентарь</t>
+  </si>
+  <si>
+    <t>Инвентарный номер</t>
+  </si>
+  <si>
+    <t>ID Квесты музея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Ответственный </t>
+  </si>
+  <si>
+    <t>ID Место хранения</t>
+  </si>
+  <si>
+    <t>ID Статус</t>
+  </si>
+  <si>
+    <t>ID Тип инвентаря</t>
+  </si>
+  <si>
+    <t>ID Срок полезного использования</t>
+  </si>
+  <si>
+    <t>ID Поставщик</t>
+  </si>
+  <si>
+    <t>Тип посетителя музея</t>
+  </si>
+  <si>
+    <t>№26</t>
+  </si>
+  <si>
+    <t>Статус хох. инвентаря</t>
+  </si>
+  <si>
+    <t>ID тип посетителя</t>
+  </si>
+  <si>
+    <t>ID Статус хох. Инвентаря</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>№27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Место хранения</t>
+  </si>
+  <si>
+    <t>ID Помещения музея</t>
+  </si>
+  <si>
+    <t>ID Место хранения инвентаря</t>
+  </si>
+  <si>
+    <t>№28</t>
+  </si>
+  <si>
+    <t>Тип инвентаря</t>
+  </si>
+  <si>
+    <t>ID Тип</t>
+  </si>
+  <si>
+    <t>ID Экскурсия</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>ID Тип график работы</t>
+  </si>
+  <si>
+    <t>ID Выставки музея</t>
+  </si>
+  <si>
+    <t>ID Эра экспоната</t>
+  </si>
+  <si>
+    <t>№29</t>
+  </si>
+  <si>
+    <t>Срок полезного использования</t>
+  </si>
+  <si>
+    <t>Кол-во посетителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна производства </t>
+  </si>
+  <si>
+    <t>ID Срок использования</t>
+  </si>
+  <si>
+    <t>Срок использования</t>
+  </si>
+  <si>
+    <t>ID Сотрудник график отпусков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Страна производства </t>
+  </si>
+  <si>
+    <t>№30</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>ID Поставщик хоз. инвентаря</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +492,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +530,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +574,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +614,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +654,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +686,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +836,1394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="2.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>